--- a/docs/StructureDefinition-ConditionProblem.xlsx
+++ b/docs/StructureDefinition-ConditionProblem.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.4.6</t>
+    <t>1.4.10</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-18T11:22:00+00:00</t>
+    <t>2025-04-18T16:44:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-ConditionProblem.xlsx
+++ b/docs/StructureDefinition-ConditionProblem.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.4.15</t>
+    <t>1.5.11</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-30T18:27:21+00:00</t>
+    <t>2025-05-08T08:24:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-ConditionProblem.xlsx
+++ b/docs/StructureDefinition-ConditionProblem.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-08T08:24:02+00:00</t>
+    <t>2025-05-08T08:54:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-ConditionProblem.xlsx
+++ b/docs/StructureDefinition-ConditionProblem.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.5.11</t>
+    <t>1.5.16</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-08T08:54:46+00:00</t>
+    <t>2025-05-12T19:54:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-ConditionProblem.xlsx
+++ b/docs/StructureDefinition-ConditionProblem.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.5.16</t>
+    <t>1.5.23</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-12T19:54:30+00:00</t>
+    <t>2025-05-23T16:28:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -894,10 +894,13 @@
     <t>Outpat.ProblemList.ProblemListCondition</t>
   </si>
   <si>
-    <t>Problem.Extension[ProblemExtension].IsRemoved,Problem.Extension[ProblemExtension].IsVerified,Problem.Extension[ProblemExtension].Removed</t>
-  </si>
-  <si>
-    <t>problem.removed,problem.unverified</t>
+    <t>Problem.Extension[ProblemExtension].IsRemoved
+Problem.Extension[ProblemExtension].IsVerified
+Problem.Extension[ProblemExtension].Removed</t>
+  </si>
+  <si>
+    <t>problem.removed
+problem.unverified</t>
   </si>
   <si>
     <t>&lt; 410514004 |Finding context value|</t>
@@ -1113,7 +1116,8 @@
     <t>Outpat.ProblemList.ICDIEN</t>
   </si>
   <si>
-    <t>problem.icd (&gt;80-.01),problem.icdd (&gt;80-68)</t>
+    <t>problem.icd (&gt;80-.01)
+problem.icdd (&gt;80-68)</t>
   </si>
   <si>
     <t>Condition.code.coding:va-icd.id</t>
@@ -1207,7 +1211,8 @@
   </si>
   <si>
     <t>Outpat.ProblemList.ICDIEN
-Dim.ICD10.ICD10Code,Dim.ICD9.ICD9Code</t>
+Dim.ICD10.ICD10Code
+Dim.ICD9.ICD9Code</t>
   </si>
   <si>
     <t>C*E.1</t>
@@ -1307,7 +1312,8 @@
     <t>Problem.Extension[ProblemExtension].Problem</t>
   </si>
   <si>
-    <t>problem.sctc,problem.sctt</t>
+    <t>problem.sctc
+problem.sctt</t>
   </si>
   <si>
     <t>Condition.code.coding:va-sct.display</t>
@@ -1492,7 +1498,8 @@
     <t>Outpat.ProblemList.OnsetDateTime</t>
   </si>
   <si>
-    <t>Problem.Extension[ProblemExtension].FromTime,Problem.Extension[ProblemExtension].OnsetDate</t>
+    <t>Problem.Extension[ProblemExtension].FromTime
+Problem.Extension[ProblemExtension].OnsetDate</t>
   </si>
   <si>
     <t>problem.onset</t>
@@ -2164,7 +2171,7 @@
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="37" max="37" width="89.77734375" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="37.671875" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="117.3359375" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="44.26953125" customWidth="true" bestFit="true"/>
     <col min="40" max="40" width="39.4609375" customWidth="true" bestFit="true"/>
     <col min="41" max="41" width="25.4609375" customWidth="true" bestFit="true"/>
     <col min="42" max="42" width="255.0" customWidth="true" bestFit="true"/>

--- a/docs/StructureDefinition-ConditionProblem.xlsx
+++ b/docs/StructureDefinition-ConditionProblem.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.5.23</t>
+    <t>1.5.30</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-23T16:28:56+00:00</t>
+    <t>2025-05-25T09:23:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-ConditionProblem.xlsx
+++ b/docs/StructureDefinition-ConditionProblem.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.5.30</t>
+    <t>1.6.49</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-25T09:23:19+00:00</t>
+    <t>2025-06-13T16:10:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
